--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>type</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>**logcondends**: Estimate a Log-Concave Probability Density from i.i.d. Observations</t>
+  </si>
+  <si>
+    <t>Kaspar Rufibach</t>
+  </si>
+  <si>
+    <t>Minimal detectable difference for a time-to-event endpoint in a Phase 3 clinical trial</t>
+  </si>
+  <si>
+    <t>https://numbersman77.github.io/kasparrufibach/code/mdd/20230809_mdd.html</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/kasparrufibach_here-is-a-question-for-anyone-working-on-activity-7094488116748529664-9TYr?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -615,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,203 +687,203 @@
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1">
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>2019</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C9" s="1">
         <v>2016</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -879,22 +891,19 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -902,19 +911,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1">
         <v>2011</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -922,39 +934,39 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C14" s="1">
         <v>2010</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -962,16 +974,16 @@
         <v>64</v>
       </c>
       <c r="C15" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -979,39 +991,39 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1">
         <v>2009</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1019,19 +1031,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,44 +1051,64 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C20" s="1">
         <v>2006</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K6" r:id="rId1"/>
+    <hyperlink ref="K7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -111,9 +111,6 @@
     <t>https://doi.org/10.1002/pst.2104</t>
   </si>
   <si>
-    <t>www.oncoestimand.org</t>
-  </si>
-  <si>
     <t>MIRROS clinical trial design</t>
   </si>
   <si>
@@ -307,16 +304,27 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/kasparrufibach_here-is-a-question-for-anyone-working-on-activity-7094488116748529664-9TYr?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>http://www.oncoestimand.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,16 +347,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -631,7 +644,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -687,22 +700,22 @@
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1">
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -710,13 +723,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -733,7 +746,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
@@ -756,13 +769,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1">
         <v>2021</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -776,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1">
         <v>2020</v>
@@ -799,7 +812,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
@@ -819,8 +832,8 @@
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
+      <c r="K7" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -828,42 +841,42 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1">
         <v>2019</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1">
         <v>2016</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -871,19 +884,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1">
         <v>2016</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -891,19 +904,19 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1">
         <v>2014</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -911,22 +924,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1">
         <v>2011</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -934,19 +947,19 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1">
         <v>2011</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -954,16 +967,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1">
         <v>2010</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -971,19 +984,19 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1">
         <v>2010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -991,19 +1004,19 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1">
         <v>2009</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1011,19 +1024,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1">
         <v>2009</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1031,19 +1044,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1">
         <v>2008</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1051,19 +1064,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1">
         <v>2007</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1071,19 +1084,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1">
         <v>2006</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1091,19 +1104,19 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1">
         <v>2006</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -66,9 +66,6 @@
     <t>http://cran.r-project.org/package=eventTrack</t>
   </si>
   <si>
-    <t>http://bbs.ceb-institute.org/wp-content/uploads/2016/06/Kaspar-event_tracking.pdf</t>
-  </si>
-  <si>
     <t>R packages</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>http://www.oncoestimand.org</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20160428/1_Rufibach.pdf</t>
   </si>
 </sst>
 </file>
@@ -642,9 +642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -692,44 +692,44 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1">
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -743,16 +743,16 @@
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -766,357 +766,357 @@
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1">
         <v>2021</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1">
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1">
         <v>2019</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1">
         <v>2016</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1">
         <v>2016</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1">
         <v>2014</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1">
         <v>2011</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1">
         <v>2011</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1">
         <v>2010</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1">
         <v>2010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1">
         <v>2009</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1">
         <v>2009</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1">
         <v>2008</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1">
         <v>2007</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1">
         <v>2006</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>2006</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -201,9 +201,6 @@
     <t>https://www.jstatsoft.org/article/view/v039i06</t>
   </si>
   <si>
-    <t>Alexandra Erdmann and **Kaspar Rufibach**</t>
-  </si>
-  <si>
     <t>**Kaspar Rufibach**, Lynda Grinsted, Jiang Li, Hans-Jochen Weber, Cheng Zheng, Jiangxiu Zhou</t>
   </si>
   <si>
@@ -307,6 +304,12 @@
   </si>
   <si>
     <t>https://baselbiometrics.github.io/home/docs/talks/20160428/1_Rufibach.pdf</t>
+  </si>
+  <si>
+    <t>https://insightsengineering.github.io/simIDM/latest-tag/</t>
+  </si>
+  <si>
+    <t>Alexandra Erdmann, **Kaspar Rufibach**, Holger Löwe, Daniel Sabanés Bové</t>
   </si>
 </sst>
 </file>
@@ -642,9 +645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,19 +706,19 @@
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1">
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -723,13 +726,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -739,6 +742,9 @@
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -746,7 +752,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
@@ -769,19 +775,19 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1">
         <v>2021</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -789,7 +795,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1">
         <v>2020</v>
@@ -812,7 +818,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
@@ -833,7 +839,7 @@
         <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -841,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1">
         <v>2019</v>
@@ -864,7 +870,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>2016</v>
@@ -884,13 +890,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1">
         <v>2016</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>37</v>
@@ -904,13 +910,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1">
         <v>2014</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>39</v>
@@ -924,13 +930,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1">
         <v>2011</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>41</v>
@@ -947,13 +953,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1">
         <v>2011</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>44</v>
@@ -967,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1">
         <v>2010</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>46</v>
@@ -984,13 +990,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1">
         <v>2010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>47</v>
@@ -1004,13 +1010,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1">
         <v>2009</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>49</v>
@@ -1024,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1">
         <v>2009</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>51</v>
@@ -1044,13 +1050,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1">
         <v>2008</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>52</v>
@@ -1064,13 +1070,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1">
         <v>2007</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>54</v>
@@ -1084,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1">
         <v>2006</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>56</v>
@@ -1104,13 +1110,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1">
         <v>2006</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>58</v>

--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t>type</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>Alexandra Erdmann, **Kaspar Rufibach**, Holger Löwe, Daniel Sabanés Bové</t>
+  </si>
+  <si>
+    <t>Thomas Kuenzel, **Kaspar Rufibach**, Regina Stegherr, Daniel Sabanés Bové</t>
+  </si>
+  <si>
+    <t>**savvyr**: Survival Analysis for AdVerse Events with VarYing Follow-Up Times</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/package=savvyr</t>
+  </si>
+  <si>
+    <t>https://openpharma.github.io/savvyr/</t>
   </si>
 </sst>
 </file>
@@ -643,11 +655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,226 +715,229 @@
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>2019</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C10" s="1">
         <v>2016</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -930,22 +945,19 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -953,19 +965,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1">
         <v>2011</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -973,39 +988,39 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C15" s="1">
         <v>2010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1013,16 +1028,16 @@
         <v>61</v>
       </c>
       <c r="C16" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1030,39 +1045,39 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1">
         <v>2009</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1070,19 +1085,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,46 +1105,69 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C21" s="1">
         <v>2006</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1"/>
+    <hyperlink ref="K8" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -75,18 +75,9 @@
     <t>code for follow-up quantification</t>
   </si>
   <si>
-    <t>https://github.com/numbersman77/savvy</t>
-  </si>
-  <si>
     <t>markdown</t>
   </si>
   <si>
-    <t>https://numbersman77.github.io/savvy/code.html</t>
-  </si>
-  <si>
-    <t>SAVVY project: Survival analysis for AdVerse events with VarYing follow-up times</t>
-  </si>
-  <si>
     <t>webpage</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
   </si>
   <si>
     <t>**Kaspar Rufibach**</t>
-  </si>
-  <si>
-    <t>Regina Stegherr and **Kaspar Rufibach**</t>
   </si>
   <si>
     <t>Björn Bornkamp, **Kaspar Rufibach**, Jianchang Lin, Yi Liu, Devan Mehrotra, Satrajit Roychoudhury, Heinz Schmidli, Yue Shentu, Marcel Wolbers</t>
@@ -655,11 +643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -707,10 +695,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -718,42 +706,42 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1">
         <v>2024</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1">
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -761,13 +749,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -779,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -787,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>2023</v>
@@ -810,27 +798,27 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>2021</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>2020</v>
@@ -839,105 +827,102 @@
         <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K7" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1">
         <v>2016</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -945,15 +930,18 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -965,13 +953,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1">
         <v>2011</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>41</v>
@@ -979,65 +967,62 @@
       <c r="H13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1">
         <v>2010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1045,36 +1030,36 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1">
         <v>2009</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>50</v>
@@ -1085,19 +1070,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,64 +1090,44 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1">
         <v>2006</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1"/>
+    <hyperlink ref="K7" r:id="rId1"/>
     <hyperlink ref="K2" r:id="rId2"/>
     <hyperlink ref="F2" r:id="rId3"/>
     <hyperlink ref="G2" r:id="rId4"/>

--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>type</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>https://openpharma.github.io/savvyr/</t>
+  </si>
+  <si>
+    <t>Illustrate false-positive risk of a futility interim analysis</t>
+  </si>
+  <si>
+    <t>https://numbersman77.github.io/kasparrufibach/code/futility_fp/20240306_futility_fp.html</t>
   </si>
 </sst>
 </file>
@@ -643,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,226 +709,223 @@
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1">
         <v>2024</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1">
         <v>2023</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>2021</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>2019</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C10" s="1">
         <v>2016</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -930,22 +933,19 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -953,19 +953,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1">
         <v>2011</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -973,39 +976,39 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C15" s="1">
         <v>2010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1013,16 +1016,16 @@
         <v>58</v>
       </c>
       <c r="C16" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1030,39 +1033,39 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1">
         <v>2009</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1070,19 +1073,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,49 +1093,70 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C21" s="1">
         <v>2006</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1"/>
-    <hyperlink ref="K2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="K8" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>https://numbersman77.github.io/kasparrufibach/code/futility_fp/20240306_futility_fp.html</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/update/urn:li:activity:7171170319980871680/</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
@@ -723,6 +726,9 @@
       <c r="J2" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>type</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7171170319980871680/</t>
+  </si>
+  <si>
+    <t>Illustrate non-proportional hazards even if one has proportional hazards in biomarker subgroups</t>
+  </si>
+  <si>
+    <t>code/nph_mixture/nph_mixture.r</t>
   </si>
 </sst>
 </file>
@@ -652,11 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,237 +727,234 @@
         <v>2024</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1">
         <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1">
         <v>2023</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1">
         <v>2023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>2021</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>2019</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C11" s="1">
         <v>2016</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -959,22 +962,19 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -982,19 +982,22 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1">
         <v>2011</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1002,39 +1005,39 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C16" s="1">
         <v>2010</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1042,16 +1045,16 @@
         <v>58</v>
       </c>
       <c r="C17" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1059,39 +1062,39 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1">
         <v>2009</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1099,19 +1102,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1119,48 +1122,68 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C22" s="1">
         <v>2006</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="J2" r:id="rId5"/>
+    <hyperlink ref="K9" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="J3" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED7FE31-75C1-4F85-B80F-05759EAB989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="2295" yWindow="390" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
   <si>
     <t>type</t>
   </si>
@@ -325,12 +326,18 @@
   </si>
   <si>
     <t>code/nph_mixture/nph_mixture.r</t>
+  </si>
+  <si>
+    <t>https://oncoestimand.github.io/trials_interim/trials_interim.html</t>
+  </si>
+  <si>
+    <t>Considerations for the planning, conduct and reporting of clinical trials with interim analyses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,8 +386,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,15 +664,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -727,10 +734,10 @@
         <v>2024</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -744,237 +751,234 @@
         <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1">
         <v>2024</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1">
         <v>2023</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1">
         <v>2023</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>2021</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>2019</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C12" s="1">
         <v>2016</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -982,22 +986,19 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1005,19 +1006,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1">
         <v>2011</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1025,39 +1029,39 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C17" s="1">
         <v>2010</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1065,16 +1069,16 @@
         <v>58</v>
       </c>
       <c r="C18" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1082,39 +1086,39 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
         <v>2009</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1142,50 +1146,71 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C23" s="1">
         <v>2006</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1"/>
-    <hyperlink ref="K4" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="J3" r:id="rId5"/>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{E29B216E-C4E5-43CE-989D-AD0C945DEA11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED7FE31-75C1-4F85-B80F-05759EAB989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B52EA-FE47-40F1-A9C1-5B844FE02CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2295" yWindow="390" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>type</t>
   </si>
@@ -70,9 +70,6 @@
     <t>R packages</t>
   </si>
   <si>
-    <t>github repositories</t>
-  </si>
-  <si>
     <t>code for follow-up quantification</t>
   </si>
   <si>
@@ -332,6 +329,9 @@
   </si>
   <si>
     <t>Considerations for the planning, conduct and reporting of clinical trials with interim analyses</t>
+  </si>
+  <si>
+    <t>https://github.com/oncoestimand/trials_interim</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -717,64 +717,67 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1">
         <v>2024</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>102</v>
+      <c r="J2" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1">
         <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1">
         <v>2024</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -782,42 +785,42 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1">
         <v>2024</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1">
         <v>2023</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -825,13 +828,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1">
         <v>2023</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -843,21 +846,21 @@
         <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1">
         <v>2023</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -874,91 +877,91 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>2021</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1">
         <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1">
         <v>2019</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1">
         <v>2016</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -966,19 +969,19 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1">
         <v>2016</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -986,19 +989,19 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1">
         <v>2014</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1006,22 +1009,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1">
         <v>2011</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1029,19 +1032,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1">
         <v>2011</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1049,16 +1052,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1">
         <v>2010</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1066,19 +1069,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1">
         <v>2010</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1086,19 +1089,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1">
         <v>2009</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1106,19 +1109,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
         <v>2009</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,19 +1129,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1">
         <v>2008</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1146,19 +1149,19 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1">
         <v>2007</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1166,19 +1169,19 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1">
         <v>2006</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1186,19 +1189,19 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1">
         <v>2006</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1208,7 +1211,7 @@
     <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{E29B216E-C4E5-43CE-989D-AD0C945DEA11}"/>
+    <hyperlink ref="J2" r:id="rId6" xr:uid="{E29B216E-C4E5-43CE-989D-AD0C945DEA11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B52EA-FE47-40F1-A9C1-5B844FE02CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707BFF4E-59F1-452F-8FD2-4AE1220B1074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>https://github.com/oncoestimand/trials_interim</t>
+  </si>
+  <si>
+    <t>https://oncoestimand.github.io/quantFU/quantFU.html</t>
   </si>
 </sst>
 </file>
@@ -667,9 +670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,6 +874,9 @@
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">

--- a/data/software.xlsx
+++ b/data/software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707BFF4E-59F1-452F-8FD2-4AE1220B1074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EF1A24-E140-4A4F-A3BE-37160E2CD1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1290" windowWidth="28800" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>http://dx.doi.org/10.1111/rssb.12011</t>
   </si>
   <si>
-    <t>http://ebuzh.r-forge.r-project.org/</t>
-  </si>
-  <si>
     <t>http://cran.r-project.org/package=selectMeta</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>https://oncoestimand.github.io/quantFU/quantFU.html</t>
+  </si>
+  <si>
+    <t>https://github.com/EBPI-Biostatistics/biostatUZH</t>
   </si>
 </sst>
 </file>
@@ -389,8 +389,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,28 +670,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="61.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="61.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" style="1"/>
-    <col min="5" max="5" width="60.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="61.140625" style="1"/>
+    <col min="4" max="4" width="61.1796875" style="1"/>
+    <col min="5" max="5" width="60.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="61.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,118 +726,118 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1">
         <v>2024</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1">
         <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1">
         <v>2024</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>2024</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1">
         <v>2023</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1">
         <v>2023</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -849,15 +849,15 @@
         <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>2023</v>
@@ -875,35 +875,35 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>2021</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1">
         <v>2020</v>
@@ -924,15 +924,15 @@
         <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
         <v>2019</v>
@@ -950,12 +950,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1">
         <v>2016</v>
@@ -970,18 +970,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1">
         <v>2016</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>33</v>
@@ -990,18 +990,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1">
         <v>2014</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>35</v>
@@ -1010,18 +1010,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1">
         <v>2011</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>37</v>
@@ -1033,18 +1033,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1">
         <v>2011</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
@@ -1053,161 +1053,161 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1">
         <v>2010</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1">
         <v>2010</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>2009</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1">
         <v>2009</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1">
         <v>2008</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1">
         <v>2007</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1">
         <v>2006</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1">
         <v>2006</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1218,8 +1218,9 @@
     <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="J2" r:id="rId6" xr:uid="{E29B216E-C4E5-43CE-989D-AD0C945DEA11}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{14101D93-E0E3-4B7D-ADFB-DBD6AA712003}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>